--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>347969.6782594751</v>
+        <v>284268.3475264954</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10500601.02362873</v>
+        <v>8666268.959347745</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7920270.647819594</v>
+        <v>8778504.33406195</v>
       </c>
     </row>
     <row r="11">
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>92.6649492891022</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>86.27197698880633</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="W2" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>81.61928733384123</v>
+        <v>43.07008646612834</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -782,31 +782,31 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>14.3427387906227</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>67.27654854321852</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>129.3420634549347</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>146.8461210887088</v>
       </c>
     </row>
     <row r="4">
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.41405905276496</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>98.74883103803275</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>36.74532229879949</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>6.324764167328738</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>86.27197698880636</v>
       </c>
       <c r="S5" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>112.1126601249237</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -989,16 +989,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>65.01432190606367</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>102.3448132540521</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>64.26286446312977</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>22.77491242827331</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1019,19 +1019,19 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>9.256558775821418</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.095592888813</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>112.1126601249237</v>
+        <v>106.5671510266614</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>146.8461210887088</v>
       </c>
     </row>
     <row r="7">
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>21.41405905276482</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>3.625377488803587</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>53.80539739834967</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>131.4600546760548</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>86.83958259249187</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>88.09081815943087</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="9">
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1232,10 +1232,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>61.76616344642424</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>77.59326173053483</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>4.724103750052183</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V9" t="n">
-        <v>144.6751566710423</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y9" t="n">
-        <v>132.7456094899373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>19.59281863505174</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>187.5255871663201</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>187.5255871663201</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>150.1031320206898</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>187.5255871663201</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>88.09081815943097</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>77.08171901666373</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>83.90635759000519</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1457,19 +1457,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.1637893657753</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>187.5255871663201</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>162.0606109397699</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1539,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>52.21594625443465</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>327.1021903442169</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>187.5255871663201</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>165.1725371760947</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>187.5255871663201</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.039683922576107</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>100.8417573507397</v>
+        <v>89.59687541851181</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>52.21594625443465</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>103.0806938130276</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>105.0023863360924</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>274.7944255145761</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247724</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>115.0138334144184</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>20.95866062610962</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2086,22 +2086,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>237.2841637048847</v>
       </c>
       <c r="E20" t="n">
-        <v>85.17289288835173</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2213,7 +2213,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7165703189229</v>
       </c>
       <c r="U21" t="n">
         <v>225.7871683969286</v>
@@ -2241,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>109.0294308692048</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>213.7615138455631</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2326,13 +2326,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>370.549466889629</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>215.7545700917616</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>88.8970056106058</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>184.1110579343357</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2569,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>198.641999062542</v>
       </c>
       <c r="H26" t="n">
-        <v>58.92805047992017</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>127.3385186497847</v>
+        <v>118.8376584678378</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2794,19 +2794,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>81.10098877883088</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>131.0573912450687</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>59.50286836346307</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>66.55427887334777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>9.099573361142522</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>156.5501852119347</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -3082,22 +3082,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3116,7 +3116,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554007</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>127.6496787807628</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3249,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>20.95866062610969</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3277,10 +3277,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>298.8830960206522</v>
       </c>
       <c r="G35" t="n">
-        <v>229.796569204138</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851092</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>121.1745395272865</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.8309945668564</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>312.8672582949287</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>53.54735467376837</v>
       </c>
       <c r="W40" t="n">
-        <v>95.44336989065498</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3751,13 +3751,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>81.90446037005177</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>229.796569204137</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3836,7 +3836,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851095</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
         <v>18.81721868247742</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>168.4013722874436</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>83.27365849109736</v>
       </c>
     </row>
     <row r="44">
@@ -3991,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>256.7877664710651</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4039,13 +4039,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>198.6682232603186</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>140.2348378640728</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>41.05669261393869</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>194.6151136988902</v>
+        <v>160.0771049282168</v>
       </c>
       <c r="C2" t="n">
-        <v>194.6151136988902</v>
+        <v>160.0771049282168</v>
       </c>
       <c r="D2" t="n">
-        <v>194.6151136988902</v>
+        <v>160.0771049282168</v>
       </c>
       <c r="E2" t="n">
-        <v>101.0141548210092</v>
+        <v>160.0771049282168</v>
       </c>
       <c r="F2" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="G2" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="H2" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="I2" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="J2" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="K2" t="n">
-        <v>21.18357364821451</v>
+        <v>53.10181779183029</v>
       </c>
       <c r="L2" t="n">
-        <v>75.16870670940374</v>
+        <v>141.3070323458398</v>
       </c>
       <c r="M2" t="n">
-        <v>166.9070065056148</v>
+        <v>271.1217663066259</v>
       </c>
       <c r="N2" t="n">
-        <v>258.6453063018261</v>
+        <v>407.6508467588565</v>
       </c>
       <c r="O2" t="n">
-        <v>337.6943058037292</v>
+        <v>523.2361246735312</v>
       </c>
       <c r="P2" t="n">
-        <v>370.6597971564088</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="Q2" t="n">
-        <v>370.6597971564088</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="R2" t="n">
-        <v>370.6597971564088</v>
+        <v>500.2410732550309</v>
       </c>
       <c r="S2" t="n">
-        <v>370.6597971564088</v>
+        <v>500.2410732550309</v>
       </c>
       <c r="T2" t="n">
-        <v>370.6597971564088</v>
+        <v>500.2410732550309</v>
       </c>
       <c r="U2" t="n">
-        <v>370.6597971564088</v>
+        <v>351.9116580139109</v>
       </c>
       <c r="V2" t="n">
-        <v>370.6597971564088</v>
+        <v>203.5822427727908</v>
       </c>
       <c r="W2" t="n">
-        <v>277.0588382785278</v>
+        <v>203.5822427727908</v>
       </c>
       <c r="X2" t="n">
-        <v>277.0588382785278</v>
+        <v>203.5822427727908</v>
       </c>
       <c r="Y2" t="n">
-        <v>194.6151136988902</v>
+        <v>160.0771049282168</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.413195943128176</v>
+        <v>160.0771049282168</v>
       </c>
       <c r="C3" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="D3" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="E3" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="F3" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="G3" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="H3" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="I3" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="J3" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="K3" t="n">
-        <v>7.413195943128176</v>
+        <v>51.36582106616825</v>
       </c>
       <c r="L3" t="n">
-        <v>81.81537555601327</v>
+        <v>150.9598290415669</v>
       </c>
       <c r="M3" t="n">
-        <v>134.8197310560413</v>
+        <v>286.5382069752474</v>
       </c>
       <c r="N3" t="n">
-        <v>226.5580308522524</v>
+        <v>392.9114626603244</v>
       </c>
       <c r="O3" t="n">
-        <v>317.2247932514005</v>
+        <v>511.1831359408233</v>
       </c>
       <c r="P3" t="n">
-        <v>370.6597971564088</v>
+        <v>586.7735145200486</v>
       </c>
       <c r="Q3" t="n">
-        <v>356.1721822163859</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="R3" t="n">
-        <v>356.1721822163859</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="S3" t="n">
-        <v>288.2160725767712</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="T3" t="n">
-        <v>194.6151136988902</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="U3" t="n">
-        <v>101.0141548210092</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="V3" t="n">
-        <v>7.413195943128176</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="W3" t="n">
-        <v>7.413195943128176</v>
+        <v>456.7359354104568</v>
       </c>
       <c r="X3" t="n">
-        <v>7.413195943128176</v>
+        <v>308.4065201693368</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.413195943128176</v>
+        <v>160.0771049282168</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="C4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="D4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="E4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="F4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="G4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="H4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="I4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="J4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="K4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="L4" t="n">
-        <v>7.413195943128176</v>
+        <v>14.12595803543247</v>
       </c>
       <c r="M4" t="n">
-        <v>7.413195943128176</v>
+        <v>19.89179156510284</v>
       </c>
       <c r="N4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="O4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="P4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="Q4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="R4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="S4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="T4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="U4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="V4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="W4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="X4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709671</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.969012809993892</v>
+        <v>55.25282753167068</v>
       </c>
       <c r="C5" t="n">
-        <v>8.969012809993892</v>
+        <v>55.25282753167068</v>
       </c>
       <c r="D5" t="n">
-        <v>8.969012809993892</v>
+        <v>55.25282753167068</v>
       </c>
       <c r="E5" t="n">
-        <v>8.969012809993892</v>
+        <v>55.25282753167068</v>
       </c>
       <c r="F5" t="n">
-        <v>8.969012809993892</v>
+        <v>18.13634036116614</v>
       </c>
       <c r="G5" t="n">
-        <v>8.969012809993892</v>
+        <v>18.13634036116614</v>
       </c>
       <c r="H5" t="n">
-        <v>8.969012809993892</v>
+        <v>18.13634036116614</v>
       </c>
       <c r="I5" t="n">
-        <v>8.969012809993892</v>
+        <v>18.13634036116614</v>
       </c>
       <c r="J5" t="n">
-        <v>8.969012809993892</v>
+        <v>11.7476896870967</v>
       </c>
       <c r="K5" t="n">
-        <v>32.11753523687554</v>
+        <v>53.10181779183031</v>
       </c>
       <c r="L5" t="n">
-        <v>97.73708609773416</v>
+        <v>141.3070323458397</v>
       </c>
       <c r="M5" t="n">
-        <v>202.4209174083929</v>
+        <v>271.1217663066258</v>
       </c>
       <c r="N5" t="n">
-        <v>313.4124509320674</v>
+        <v>407.6508467588563</v>
       </c>
       <c r="O5" t="n">
-        <v>404.8833474416797</v>
+        <v>523.236124673531</v>
       </c>
       <c r="P5" t="n">
-        <v>448.4506404996946</v>
+        <v>587.3844843548352</v>
       </c>
       <c r="Q5" t="n">
-        <v>448.4506404996946</v>
+        <v>587.3844843548352</v>
       </c>
       <c r="R5" t="n">
-        <v>448.4506404996946</v>
+        <v>500.2410732550308</v>
       </c>
       <c r="S5" t="n">
-        <v>335.205529262398</v>
+        <v>500.2410732550308</v>
       </c>
       <c r="T5" t="n">
-        <v>221.9604180251014</v>
+        <v>500.2410732550308</v>
       </c>
       <c r="U5" t="n">
-        <v>108.7153067878047</v>
+        <v>351.9116580139107</v>
       </c>
       <c r="V5" t="n">
-        <v>108.7153067878047</v>
+        <v>203.5822427727907</v>
       </c>
       <c r="W5" t="n">
-        <v>108.7153067878047</v>
+        <v>55.25282753167068</v>
       </c>
       <c r="X5" t="n">
-        <v>108.7153067878047</v>
+        <v>55.25282753167068</v>
       </c>
       <c r="Y5" t="n">
-        <v>108.7153067878047</v>
+        <v>55.25282753167068</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242.93062859105</v>
+        <v>183.0820669769776</v>
       </c>
       <c r="C6" t="n">
-        <v>242.93062859105</v>
+        <v>183.0820669769776</v>
       </c>
       <c r="D6" t="n">
-        <v>242.93062859105</v>
+        <v>34.75265173585763</v>
       </c>
       <c r="E6" t="n">
-        <v>242.93062859105</v>
+        <v>34.75265173585763</v>
       </c>
       <c r="F6" t="n">
-        <v>242.93062859105</v>
+        <v>34.75265173585763</v>
       </c>
       <c r="G6" t="n">
-        <v>177.2595963627029</v>
+        <v>34.75265173585763</v>
       </c>
       <c r="H6" t="n">
-        <v>73.8809971161856</v>
+        <v>34.75265173585763</v>
       </c>
       <c r="I6" t="n">
-        <v>8.969012809993892</v>
+        <v>34.75265173585763</v>
       </c>
       <c r="J6" t="n">
-        <v>8.969012809993892</v>
+        <v>11.7476896870967</v>
       </c>
       <c r="K6" t="n">
-        <v>36.22166818534551</v>
+        <v>51.36582106616819</v>
       </c>
       <c r="L6" t="n">
-        <v>119.1887676792232</v>
+        <v>150.9598290415667</v>
       </c>
       <c r="M6" t="n">
-        <v>230.1803012028977</v>
+        <v>286.5382069752471</v>
       </c>
       <c r="N6" t="n">
-        <v>287.4309731640694</v>
+        <v>431.9158668530688</v>
       </c>
       <c r="O6" t="n">
-        <v>387.4830745953194</v>
+        <v>550.1875401335676</v>
       </c>
       <c r="P6" t="n">
-        <v>448.4506404996946</v>
+        <v>587.3844843548352</v>
       </c>
       <c r="Q6" t="n">
-        <v>439.100581130178</v>
+        <v>587.3844843548352</v>
       </c>
       <c r="R6" t="n">
-        <v>356.1757398283467</v>
+        <v>587.3844843548352</v>
       </c>
       <c r="S6" t="n">
-        <v>242.93062859105</v>
+        <v>479.7408974592176</v>
       </c>
       <c r="T6" t="n">
-        <v>242.93062859105</v>
+        <v>479.7408974592176</v>
       </c>
       <c r="U6" t="n">
-        <v>242.93062859105</v>
+        <v>331.4114822180977</v>
       </c>
       <c r="V6" t="n">
-        <v>242.93062859105</v>
+        <v>331.4114822180977</v>
       </c>
       <c r="W6" t="n">
-        <v>242.93062859105</v>
+        <v>331.4114822180977</v>
       </c>
       <c r="X6" t="n">
-        <v>242.93062859105</v>
+        <v>331.4114822180977</v>
       </c>
       <c r="Y6" t="n">
-        <v>242.93062859105</v>
+        <v>183.0820669769776</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665713</v>
       </c>
       <c r="C7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665713</v>
       </c>
       <c r="D7" t="n">
-        <v>12.63101027343186</v>
+        <v>11.7476896870967</v>
       </c>
       <c r="E7" t="n">
-        <v>12.63101027343186</v>
+        <v>11.7476896870967</v>
       </c>
       <c r="F7" t="n">
-        <v>12.63101027343186</v>
+        <v>11.7476896870967</v>
       </c>
       <c r="G7" t="n">
-        <v>12.63101027343186</v>
+        <v>11.7476896870967</v>
       </c>
       <c r="H7" t="n">
-        <v>12.63101027343186</v>
+        <v>11.7476896870967</v>
       </c>
       <c r="I7" t="n">
-        <v>12.63101027343186</v>
+        <v>11.7476896870967</v>
       </c>
       <c r="J7" t="n">
-        <v>12.63101027343186</v>
+        <v>11.7476896870967</v>
       </c>
       <c r="K7" t="n">
-        <v>12.63101027343186</v>
+        <v>11.7476896870967</v>
       </c>
       <c r="L7" t="n">
-        <v>12.63101027343186</v>
+        <v>14.12595803543244</v>
       </c>
       <c r="M7" t="n">
-        <v>8.969012809993892</v>
+        <v>19.89179156510276</v>
       </c>
       <c r="N7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665713</v>
       </c>
       <c r="O7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665713</v>
       </c>
       <c r="P7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665713</v>
       </c>
       <c r="Q7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665713</v>
       </c>
       <c r="R7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665713</v>
       </c>
       <c r="S7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665713</v>
       </c>
       <c r="T7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665713</v>
       </c>
       <c r="U7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665713</v>
       </c>
       <c r="V7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665713</v>
       </c>
       <c r="W7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665713</v>
       </c>
       <c r="X7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665713</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665713</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>198.7108328108596</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="C8" t="n">
-        <v>198.7108328108596</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="D8" t="n">
-        <v>198.7108328108596</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="E8" t="n">
-        <v>198.7108328108596</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="F8" t="n">
-        <v>198.7108328108596</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G8" t="n">
-        <v>198.7108328108596</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H8" t="n">
-        <v>144.3619465499003</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I8" t="n">
-        <v>11.57401253368338</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J8" t="n">
-        <v>11.57401253368338</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K8" t="n">
-        <v>51.79022575657168</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L8" t="n">
-        <v>138.5837562783352</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M8" t="n">
-        <v>266.8277197508551</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N8" t="n">
-        <v>401.7606130061291</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O8" t="n">
-        <v>515.8386566132575</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P8" t="n">
-        <v>578.7006266841692</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q8" t="n">
-        <v>578.7006266841692</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R8" t="n">
-        <v>490.983876590743</v>
+        <v>672.2420264262255</v>
       </c>
       <c r="S8" t="n">
-        <v>490.983876590743</v>
+        <v>672.2420264262255</v>
       </c>
       <c r="T8" t="n">
-        <v>490.983876590743</v>
+        <v>672.2420264262255</v>
       </c>
       <c r="U8" t="n">
-        <v>490.983876590743</v>
+        <v>672.2420264262255</v>
       </c>
       <c r="V8" t="n">
-        <v>490.983876590743</v>
+        <v>583.26140202276</v>
       </c>
       <c r="W8" t="n">
-        <v>490.983876590743</v>
+        <v>583.26140202276</v>
       </c>
       <c r="X8" t="n">
-        <v>344.8473547008013</v>
+        <v>583.26140202276</v>
       </c>
       <c r="Y8" t="n">
-        <v>344.8473547008013</v>
+        <v>393.8416170062752</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>73.96407662098059</v>
+        <v>177.0711716460756</v>
       </c>
       <c r="C9" t="n">
-        <v>73.96407662098059</v>
+        <v>177.0711716460756</v>
       </c>
       <c r="D9" t="n">
-        <v>73.96407662098059</v>
+        <v>177.0711716460756</v>
       </c>
       <c r="E9" t="n">
-        <v>73.96407662098059</v>
+        <v>177.0711716460756</v>
       </c>
       <c r="F9" t="n">
-        <v>73.96407662098059</v>
+        <v>30.53661367296054</v>
       </c>
       <c r="G9" t="n">
-        <v>73.96407662098059</v>
+        <v>30.53661367296054</v>
       </c>
       <c r="H9" t="n">
-        <v>73.96407662098059</v>
+        <v>30.53661367296054</v>
       </c>
       <c r="I9" t="n">
-        <v>11.57401253368338</v>
+        <v>30.53661367296054</v>
       </c>
       <c r="J9" t="n">
-        <v>11.57401253368338</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K9" t="n">
-        <v>50.41925783498756</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L9" t="n">
-        <v>148.9740250987618</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M9" t="n">
-        <v>283.3396581397943</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N9" t="n">
-        <v>426.5680632441262</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O9" t="n">
-        <v>543.7009487075663</v>
+        <v>649.2101578476349</v>
       </c>
       <c r="P9" t="n">
-        <v>578.7006266841692</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q9" t="n">
-        <v>578.7006266841692</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R9" t="n">
-        <v>500.3235946331239</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S9" t="n">
-        <v>354.1870727431822</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T9" t="n">
-        <v>354.1870727431822</v>
+        <v>745.3305266955301</v>
       </c>
       <c r="U9" t="n">
-        <v>354.1870727431822</v>
+        <v>555.9107416790453</v>
       </c>
       <c r="V9" t="n">
-        <v>208.0505508532405</v>
+        <v>366.4909566625604</v>
       </c>
       <c r="W9" t="n">
-        <v>208.0505508532405</v>
+        <v>366.4909566625604</v>
       </c>
       <c r="X9" t="n">
-        <v>208.0505508532405</v>
+        <v>177.0711716460756</v>
       </c>
       <c r="Y9" t="n">
-        <v>73.96407662098059</v>
+        <v>177.0711716460756</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>31.36473842767504</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="C10" t="n">
-        <v>31.36473842767504</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="D10" t="n">
-        <v>31.36473842767504</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="E10" t="n">
-        <v>31.36473842767504</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="F10" t="n">
-        <v>31.36473842767504</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="G10" t="n">
-        <v>31.36473842767504</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H10" t="n">
-        <v>31.36473842767504</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I10" t="n">
-        <v>31.36473842767504</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J10" t="n">
-        <v>11.57401253368338</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K10" t="n">
-        <v>11.57401253368338</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L10" t="n">
-        <v>13.35570305153742</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M10" t="n">
-        <v>18.49252890534889</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N10" t="n">
-        <v>31.36473842767504</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O10" t="n">
-        <v>31.36473842767504</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P10" t="n">
-        <v>31.36473842767504</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q10" t="n">
-        <v>31.36473842767504</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R10" t="n">
-        <v>31.36473842767504</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S10" t="n">
-        <v>31.36473842767504</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T10" t="n">
-        <v>31.36473842767504</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U10" t="n">
-        <v>31.36473842767504</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V10" t="n">
-        <v>31.36473842767504</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W10" t="n">
-        <v>31.36473842767504</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="X10" t="n">
-        <v>31.36473842767504</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Y10" t="n">
-        <v>31.36473842767504</v>
+        <v>67.74542702828987</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>482.8222414097412</v>
+        <v>1771.418012197381</v>
       </c>
       <c r="C11" t="n">
-        <v>293.4024563932562</v>
+        <v>1402.455495256969</v>
       </c>
       <c r="D11" t="n">
-        <v>293.4024563932562</v>
+        <v>1044.189796650219</v>
       </c>
       <c r="E11" t="n">
-        <v>293.4024563932562</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F11" t="n">
-        <v>293.4024563932562</v>
+        <v>481.584566587187</v>
       </c>
       <c r="G11" t="n">
-        <v>103.9826713767712</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H11" t="n">
-        <v>15.00204697330561</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I11" t="n">
-        <v>15.00204697330561</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J11" t="n">
-        <v>21.03371160678508</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>80.81213159058969</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L11" t="n">
-        <v>191.8743094079185</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>347.1218190644757</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>509.4952041123833</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>649.4845259985589</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>734.4611726020272</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>750.1023486652805</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R11" t="n">
-        <v>672.2420264262262</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>672.2420264262262</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T11" t="n">
-        <v>672.2420264262262</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U11" t="n">
-        <v>672.2420264262262</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V11" t="n">
-        <v>672.2420264262262</v>
+        <v>2884.252265792697</v>
       </c>
       <c r="W11" t="n">
-        <v>672.2420264262262</v>
+        <v>2531.483610522582</v>
       </c>
       <c r="X11" t="n">
-        <v>672.2420264262262</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y11" t="n">
-        <v>672.2420264262262</v>
+        <v>2158.017852261502</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>475.9286670932347</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>301.4756378121077</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>152.5412281508565</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>152.5412281508565</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>152.5412281508565</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>15.00204697330561</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>15.00204697330561</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>15.00204697330561</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
-        <v>15.00204697330561</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K12" t="n">
-        <v>67.13418877024219</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>183.5548280772651</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M12" t="n">
-        <v>338.7690911140248</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>512.5000587546606</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>649.2101578476354</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>739.5989987017069</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>750.1023486652805</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>750.1023486652805</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>750.1023486652805</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>750.1023486652805</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>750.1023486652805</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>750.1023486652805</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>560.6825636487955</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>560.6825636487955</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>560.6825636487955</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>67.74542702829011</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C13" t="n">
-        <v>67.74542702829011</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D13" t="n">
-        <v>67.74542702829011</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E13" t="n">
-        <v>67.74542702829011</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F13" t="n">
-        <v>67.74542702829011</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G13" t="n">
-        <v>15.00204697330561</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H13" t="n">
-        <v>15.00204697330561</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I13" t="n">
-        <v>15.00204697330561</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J13" t="n">
-        <v>15.00204697330561</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K13" t="n">
-        <v>15.00204697330561</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L13" t="n">
-        <v>27.03967056230183</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M13" t="n">
-        <v>42.98993985170729</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N13" t="n">
-        <v>66.41847329396353</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O13" t="n">
-        <v>67.74542702829011</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P13" t="n">
-        <v>67.74542702829011</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q13" t="n">
-        <v>67.74542702829011</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R13" t="n">
-        <v>67.74542702829011</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S13" t="n">
-        <v>67.74542702829011</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T13" t="n">
-        <v>67.74542702829011</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U13" t="n">
-        <v>67.74542702829011</v>
+        <v>631.784138943829</v>
       </c>
       <c r="V13" t="n">
-        <v>67.74542702829011</v>
+        <v>377.0996507379422</v>
       </c>
       <c r="W13" t="n">
-        <v>67.74542702829011</v>
+        <v>377.0996507379422</v>
       </c>
       <c r="X13" t="n">
-        <v>67.74542702829011</v>
+        <v>377.0996507379422</v>
       </c>
       <c r="Y13" t="n">
-        <v>67.74542702829011</v>
+        <v>377.0996507379422</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>560.6825636487955</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C14" t="n">
-        <v>560.6825636487955</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D14" t="n">
-        <v>560.6825636487955</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E14" t="n">
-        <v>371.2627786323105</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F14" t="n">
-        <v>181.8429936158255</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G14" t="n">
-        <v>181.8429936158255</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
-        <v>15.00204697330561</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>15.00204697330561</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J14" t="n">
-        <v>21.03371160678512</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>80.81213159058962</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>191.8743094079187</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>347.1218190644759</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>509.4952041123835</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>649.4845259985591</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>734.4611726020272</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>750.1023486652805</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R14" t="n">
-        <v>750.1023486652805</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S14" t="n">
-        <v>750.1023486652805</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T14" t="n">
-        <v>750.1023486652805</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U14" t="n">
-        <v>750.1023486652805</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V14" t="n">
-        <v>750.1023486652805</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="W14" t="n">
-        <v>750.1023486652805</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="X14" t="n">
-        <v>750.1023486652805</v>
+        <v>2382.341170533246</v>
       </c>
       <c r="Y14" t="n">
-        <v>560.6825636487955</v>
+        <v>1992.201838557434</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>746.0218598545974</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C15" t="n">
-        <v>571.5688305734704</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D15" t="n">
-        <v>422.6344209122192</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E15" t="n">
-        <v>263.3969659067637</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F15" t="n">
-        <v>116.8624079336487</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G15" t="n">
-        <v>116.8624079336487</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H15" t="n">
-        <v>15.00204697330561</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>15.00204697330561</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J15" t="n">
-        <v>15.00204697330561</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K15" t="n">
-        <v>67.13418877024222</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>183.5548280772651</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M15" t="n">
-        <v>338.7690911140247</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>512.5000587546606</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>649.2101578476354</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>739.5989987017068</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>750.1023486652804</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>750.1023486652804</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S15" t="n">
-        <v>750.1023486652804</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
-        <v>750.1023486652804</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
-        <v>750.1023486652804</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>750.1023486652804</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>750.1023486652804</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
-        <v>750.1023486652804</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>750.1023486652804</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>67.74542702829011</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="C16" t="n">
-        <v>67.74542702829011</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="D16" t="n">
-        <v>67.74542702829011</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="E16" t="n">
-        <v>67.74542702829011</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F16" t="n">
-        <v>15.00204697330561</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G16" t="n">
-        <v>15.00204697330561</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H16" t="n">
-        <v>15.00204697330561</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I16" t="n">
-        <v>15.00204697330561</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J16" t="n">
-        <v>15.00204697330561</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K16" t="n">
-        <v>15.00204697330561</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L16" t="n">
-        <v>27.03967056230183</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M16" t="n">
-        <v>42.98993985170729</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N16" t="n">
-        <v>66.41847329396353</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O16" t="n">
-        <v>67.74542702829011</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P16" t="n">
-        <v>67.74542702829011</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q16" t="n">
-        <v>67.74542702829011</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R16" t="n">
-        <v>67.74542702829011</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S16" t="n">
-        <v>67.74542702829011</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T16" t="n">
-        <v>67.74542702829011</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U16" t="n">
-        <v>67.74542702829011</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V16" t="n">
-        <v>67.74542702829011</v>
+        <v>666.2025176122986</v>
       </c>
       <c r="W16" t="n">
-        <v>67.74542702829011</v>
+        <v>562.0806046698465</v>
       </c>
       <c r="X16" t="n">
-        <v>67.74542702829011</v>
+        <v>562.0806046698465</v>
       </c>
       <c r="Y16" t="n">
-        <v>67.74542702829011</v>
+        <v>562.0806046698465</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.167438673965</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C17" t="n">
-        <v>1976.204921733553</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D17" t="n">
-        <v>1617.939223126803</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U17" t="n">
-        <v>3009.337405520487</v>
+        <v>3013.565057492288</v>
       </c>
       <c r="V17" t="n">
-        <v>3009.337405520487</v>
+        <v>2682.502170148718</v>
       </c>
       <c r="W17" t="n">
-        <v>3009.337405520487</v>
+        <v>2329.733514878603</v>
       </c>
       <c r="X17" t="n">
-        <v>3009.337405520487</v>
+        <v>1956.267756617523</v>
       </c>
       <c r="Y17" t="n">
-        <v>2731.767278738087</v>
+        <v>1566.128424641711</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F18" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G18" t="n">
-        <v>936.573581468607</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I18" t="n">
-        <v>827.0643955080125</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K19" t="n">
         <v>176.6457242372932</v>
@@ -5706,19 +5706,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U19" t="n">
-        <v>920.8870058181849</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V19" t="n">
-        <v>920.8870058181849</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W19" t="n">
-        <v>631.4698357812242</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="X19" t="n">
-        <v>403.4802848832069</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="Y19" t="n">
-        <v>182.6877057396768</v>
+        <v>66.51211643218339</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>921.7704558796261</v>
+        <v>1501.213961756484</v>
       </c>
       <c r="C20" t="n">
-        <v>552.8079389392144</v>
+        <v>1132.251444816072</v>
       </c>
       <c r="D20" t="n">
-        <v>194.5422403324639</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E20" t="n">
-        <v>108.5090151927147</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
-        <v>108.5090151927147</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
         <v>589.2106210810553</v>
@@ -5782,22 +5782,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W20" t="n">
-        <v>2071.975386180639</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X20" t="n">
-        <v>1698.50962791956</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y20" t="n">
-        <v>1308.370295943748</v>
+        <v>1887.813801820605</v>
       </c>
     </row>
     <row r="21">
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3143.957356778931</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C22" t="n">
-        <v>2975.021173851024</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D22" t="n">
-        <v>2824.904534438689</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E22" t="n">
-        <v>2824.904534438689</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F22" t="n">
-        <v>2824.904534438689</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G22" t="n">
-        <v>2714.773796186967</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>2568.556609404824</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K22" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L22" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M22" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N22" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O22" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P22" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R22" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S22" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T22" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U22" t="n">
-        <v>3325.605821609171</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V22" t="n">
-        <v>3325.605821609171</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="W22" t="n">
-        <v>3325.605821609171</v>
+        <v>415.8634178877041</v>
       </c>
       <c r="X22" t="n">
-        <v>3325.605821609171</v>
+        <v>415.8634178877041</v>
       </c>
       <c r="Y22" t="n">
-        <v>3325.605821609171</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2291.674678112794</v>
+        <v>2106.031998942028</v>
       </c>
       <c r="C23" t="n">
-        <v>1922.712161172383</v>
+        <v>1737.069482001616</v>
       </c>
       <c r="D23" t="n">
-        <v>1564.446462565632</v>
+        <v>1378.803783394866</v>
       </c>
       <c r="E23" t="n">
-        <v>1190.154071768027</v>
+        <v>993.0155307966213</v>
       </c>
       <c r="F23" t="n">
-        <v>779.1681669784198</v>
+        <v>582.0296260070138</v>
       </c>
       <c r="G23" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K23" t="n">
         <v>589.2106210810553</v>
@@ -5998,7 +5998,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
         <v>2120.555556060171</v>
@@ -6013,28 +6013,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U23" t="n">
-        <v>3009.337405520487</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V23" t="n">
-        <v>2678.274518176916</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W23" t="n">
-        <v>2678.274518176916</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="X23" t="n">
-        <v>2678.274518176916</v>
+        <v>2492.63183900615</v>
       </c>
       <c r="Y23" t="n">
-        <v>2678.274518176916</v>
+        <v>2492.63183900615</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66.5121164321834</v>
+        <v>553.2677753977071</v>
       </c>
       <c r="C25" t="n">
-        <v>66.5121164321834</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D25" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E25" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F25" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K25" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L25" t="n">
         <v>332.3555681596505</v>
@@ -6180,19 +6180,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U25" t="n">
-        <v>631.7841389438285</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V25" t="n">
-        <v>377.0996507379416</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W25" t="n">
-        <v>377.0996507379416</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X25" t="n">
-        <v>377.0996507379416</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y25" t="n">
-        <v>156.3070715944115</v>
+        <v>734.9162402279468</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2065.110222835252</v>
+        <v>1422.200456328343</v>
       </c>
       <c r="C26" t="n">
-        <v>1696.14770589484</v>
+        <v>1422.200456328343</v>
       </c>
       <c r="D26" t="n">
-        <v>1337.882007288089</v>
+        <v>1063.934757721593</v>
       </c>
       <c r="E26" t="n">
-        <v>952.0937546898451</v>
+        <v>678.1465051233486</v>
       </c>
       <c r="F26" t="n">
-        <v>541.1078499002376</v>
+        <v>267.160600333741</v>
       </c>
       <c r="G26" t="n">
-        <v>126.0353997452341</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U26" t="n">
-        <v>3215.315153136265</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V26" t="n">
-        <v>3215.315153136265</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W26" t="n">
-        <v>3215.315153136265</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X26" t="n">
-        <v>2841.849394875185</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y26" t="n">
-        <v>2451.710062899373</v>
+        <v>1808.800296392465</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2599.855698536083</v>
+        <v>631.4698357812244</v>
       </c>
       <c r="C28" t="n">
-        <v>2471.230932223169</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D28" t="n">
-        <v>2471.230932223169</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E28" t="n">
-        <v>2471.230932223169</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F28" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G28" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H28" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I28" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J28" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K28" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L28" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M28" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N28" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O28" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P28" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q28" t="n">
-        <v>3325.60582160917</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R28" t="n">
-        <v>3325.60582160917</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S28" t="n">
-        <v>3325.60582160917</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T28" t="n">
-        <v>3325.60582160917</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U28" t="n">
-        <v>3325.60582160917</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V28" t="n">
-        <v>3070.921333403283</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W28" t="n">
-        <v>2781.504163366323</v>
+        <v>631.4698357812244</v>
       </c>
       <c r="X28" t="n">
-        <v>2781.504163366323</v>
+        <v>631.4698357812244</v>
       </c>
       <c r="Y28" t="n">
-        <v>2781.504163366323</v>
+        <v>631.4698357812244</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1179.52858457759</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C29" t="n">
-        <v>810.5660676371781</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="D29" t="n">
-        <v>452.3003690304276</v>
+        <v>563.5047572728747</v>
       </c>
       <c r="E29" t="n">
-        <v>66.5121164321834</v>
+        <v>563.5047572728747</v>
       </c>
       <c r="F29" t="n">
-        <v>66.5121164321834</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
         <v>66.5121164321834</v>
@@ -6463,10 +6463,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6508,7 +6508,7 @@
         <v>1698.509627919559</v>
       </c>
       <c r="Y29" t="n">
-        <v>1566.128424641711</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I30" t="n">
         <v>66.5121164321834</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3030.38972639464</v>
+        <v>739.2385409879452</v>
       </c>
       <c r="C31" t="n">
-        <v>3030.38972639464</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D31" t="n">
-        <v>3030.38972639464</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E31" t="n">
-        <v>2882.476632812247</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F31" t="n">
-        <v>2882.476632812247</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G31" t="n">
-        <v>2714.773796186966</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>2568.556609404824</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K31" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L31" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M31" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N31" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O31" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P31" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q31" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R31" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S31" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T31" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U31" t="n">
-        <v>3258.379277292657</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V31" t="n">
-        <v>3258.379277292657</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W31" t="n">
-        <v>3258.379277292657</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X31" t="n">
-        <v>3030.38972639464</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y31" t="n">
-        <v>3030.38972639464</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1734.047335491682</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C32" t="n">
-        <v>1365.084818551271</v>
+        <v>1329.547110979148</v>
       </c>
       <c r="D32" t="n">
-        <v>1365.084818551271</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E32" t="n">
-        <v>979.2965659530264</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F32" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
         <v>108.5090151927147</v>
@@ -6730,22 +6730,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U32" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V32" t="n">
-        <v>2884.252265792696</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W32" t="n">
-        <v>2884.252265792696</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X32" t="n">
-        <v>2510.786507531616</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y32" t="n">
-        <v>2120.647175555804</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="33">
@@ -6755,13 +6755,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
         <v>458.9189605332749</v>
@@ -6812,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6821,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2600.170001698688</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C34" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D34" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E34" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F34" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G34" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H34" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I34" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J34" t="n">
-        <v>2483.05368576061</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K34" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L34" t="n">
-        <v>2737.074383950638</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M34" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N34" t="n">
-        <v>3075.815702279683</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O34" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P34" t="n">
-        <v>3312.685054250631</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.605821609171</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R34" t="n">
-        <v>3325.605821609171</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S34" t="n">
-        <v>3325.605821609171</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T34" t="n">
-        <v>3325.605821609171</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U34" t="n">
-        <v>3036.502954734815</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="V34" t="n">
-        <v>2781.818466528928</v>
+        <v>377.0996507379417</v>
       </c>
       <c r="W34" t="n">
-        <v>2781.818466528928</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="X34" t="n">
-        <v>2781.818466528928</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y34" t="n">
-        <v>2781.818466528928</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1822.632236038044</v>
+        <v>1896.503151925171</v>
       </c>
       <c r="C35" t="n">
-        <v>1453.669719097632</v>
+        <v>1527.54063498476</v>
       </c>
       <c r="D35" t="n">
-        <v>1095.404020490882</v>
+        <v>1169.274936378009</v>
       </c>
       <c r="E35" t="n">
-        <v>709.6157678926375</v>
+        <v>783.4866837797649</v>
       </c>
       <c r="F35" t="n">
-        <v>298.6298631030299</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V35" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W35" t="n">
-        <v>2972.837166339057</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X35" t="n">
-        <v>2599.371408077977</v>
+        <v>2283.102991989293</v>
       </c>
       <c r="Y35" t="n">
-        <v>2209.232076102166</v>
+        <v>2283.102991989293</v>
       </c>
     </row>
     <row r="36">
@@ -7010,13 +7010,13 @@
         <v>176.0213023927777</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>66.51211643218343</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C37" t="n">
-        <v>66.51211643218343</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D37" t="n">
-        <v>66.51211643218343</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E37" t="n">
-        <v>66.51211643218343</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F37" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K37" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L37" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M37" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N37" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O37" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P37" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q37" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R37" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S37" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T37" t="n">
-        <v>699.120390387711</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="U37" t="n">
-        <v>699.120390387711</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="V37" t="n">
-        <v>699.120390387711</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="W37" t="n">
-        <v>409.7032203507504</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="X37" t="n">
-        <v>409.7032203507504</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y37" t="n">
-        <v>188.9106412072203</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1533.918936517076</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C38" t="n">
-        <v>1164.956419576664</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D38" t="n">
-        <v>1164.956419576664</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E38" t="n">
-        <v>779.1681669784198</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F38" t="n">
         <v>779.1681669784198</v>
@@ -7168,58 +7168,58 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3290.422998814367</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3290.422998814367</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U38" t="n">
-        <v>3036.892522088203</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V38" t="n">
-        <v>3036.892522088203</v>
+        <v>2693.309871889246</v>
       </c>
       <c r="W38" t="n">
-        <v>2684.123866818089</v>
+        <v>2693.309871889246</v>
       </c>
       <c r="X38" t="n">
-        <v>2310.658108557009</v>
+        <v>2693.309871889246</v>
       </c>
       <c r="Y38" t="n">
-        <v>1920.518776581197</v>
+        <v>2303.170539913434</v>
       </c>
     </row>
     <row r="39">
@@ -7247,28 +7247,28 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P39" t="n">
         <v>2407.411984886741</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J40" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K40" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L40" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M40" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N40" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O40" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P40" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q40" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R40" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S40" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T40" t="n">
-        <v>417.6040489720652</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U40" t="n">
-        <v>417.6040489720652</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="V40" t="n">
-        <v>162.9195607661784</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="X40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="Y40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1590.514489367197</v>
+        <v>1308.370295943749</v>
       </c>
       <c r="C41" t="n">
-        <v>1221.551972426786</v>
+        <v>1308.370295943749</v>
       </c>
       <c r="D41" t="n">
-        <v>863.2862738200351</v>
+        <v>950.1045973369987</v>
       </c>
       <c r="E41" t="n">
-        <v>477.498021221791</v>
+        <v>564.3163447387544</v>
       </c>
       <c r="F41" t="n">
-        <v>66.5121164321834</v>
+        <v>564.3163447387544</v>
       </c>
       <c r="G41" t="n">
-        <v>66.5121164321834</v>
+        <v>149.2438945837509</v>
       </c>
       <c r="H41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V41" t="n">
-        <v>3093.488074938325</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W41" t="n">
-        <v>2740.71941966821</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X41" t="n">
-        <v>2367.25366140713</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y41" t="n">
-        <v>1977.114329431319</v>
+        <v>1308.370295943749</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>529.0179941377679</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C43" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="D43" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="E43" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962286</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K43" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L43" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M43" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N43" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O43" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P43" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S43" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="T43" t="n">
-        <v>699.1203903877109</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="U43" t="n">
-        <v>529.0179941377679</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="V43" t="n">
-        <v>529.0179941377679</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="W43" t="n">
-        <v>529.0179941377679</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="X43" t="n">
-        <v>529.0179941377679</v>
+        <v>501.2115707469941</v>
       </c>
       <c r="Y43" t="n">
-        <v>529.0179941377679</v>
+        <v>417.0967641903301</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1221.525483338121</v>
+        <v>1853.982617026599</v>
       </c>
       <c r="C44" t="n">
-        <v>852.5629663977095</v>
+        <v>1485.020100086187</v>
       </c>
       <c r="D44" t="n">
-        <v>494.2972677909589</v>
+        <v>1126.754401479436</v>
       </c>
       <c r="E44" t="n">
-        <v>108.5090151927147</v>
+        <v>740.9661488811921</v>
       </c>
       <c r="F44" t="n">
-        <v>108.5090151927147</v>
+        <v>740.9661488811921</v>
       </c>
       <c r="G44" t="n">
-        <v>108.5090151927147</v>
+        <v>325.8936987261886</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U44" t="n">
-        <v>2866.097597267229</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V44" t="n">
-        <v>2535.034709923658</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W44" t="n">
-        <v>2182.266054653544</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X44" t="n">
-        <v>1808.800296392464</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="Y44" t="n">
-        <v>1608.125323402243</v>
+        <v>2240.58245709072</v>
       </c>
     </row>
     <row r="45">
@@ -7718,16 +7718,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
         <v>398.4535849031477</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.4482993600903</v>
+        <v>699.120390387711</v>
       </c>
       <c r="C46" t="n">
-        <v>66.5121164321834</v>
+        <v>699.120390387711</v>
       </c>
       <c r="D46" t="n">
-        <v>66.5121164321834</v>
+        <v>549.0037509753753</v>
       </c>
       <c r="E46" t="n">
-        <v>66.5121164321834</v>
+        <v>401.0906573929822</v>
       </c>
       <c r="F46" t="n">
-        <v>66.5121164321834</v>
+        <v>254.2007098950718</v>
       </c>
       <c r="G46" t="n">
-        <v>66.5121164321834</v>
+        <v>254.2007098950718</v>
       </c>
       <c r="H46" t="n">
-        <v>66.5121164321834</v>
+        <v>107.9835231129296</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K46" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L46" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M46" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N46" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O46" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P46" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q46" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R46" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S46" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T46" t="n">
-        <v>920.8870058181849</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U46" t="n">
-        <v>631.7841389438285</v>
+        <v>699.120390387711</v>
       </c>
       <c r="V46" t="n">
-        <v>377.0996507379416</v>
+        <v>699.120390387711</v>
       </c>
       <c r="W46" t="n">
-        <v>377.0996507379416</v>
+        <v>699.120390387711</v>
       </c>
       <c r="X46" t="n">
-        <v>377.0996507379416</v>
+        <v>699.120390387711</v>
       </c>
       <c r="Y46" t="n">
-        <v>377.0996507379416</v>
+        <v>699.120390387711</v>
       </c>
     </row>
   </sheetData>
@@ -22555,22 +22555,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>289.2654207831596</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>314.2110964526092</v>
+        <v>260.0299246530026</v>
       </c>
       <c r="G2" t="n">
-        <v>413.4631744246258</v>
+        <v>413.2441370602317</v>
       </c>
       <c r="H2" t="n">
-        <v>320.6353766150897</v>
+        <v>318.3921602069877</v>
       </c>
       <c r="I2" t="n">
-        <v>139.5561335235496</v>
+        <v>131.1116955327425</v>
       </c>
       <c r="J2" t="n">
-        <v>24.91528667358037</v>
+        <v>6.324764167328709</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>23.65357118422324</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>100.0310828299331</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>167.1010256612668</v>
+        <v>162.1097117201341</v>
       </c>
       <c r="T2" t="n">
-        <v>215.0431621354273</v>
+        <v>214.0843260727917</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1984878605957</v>
+        <v>104.3348437827354</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>180.9061373814261</v>
       </c>
       <c r="W2" t="n">
-        <v>256.5760194283108</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>304.6186513222124</v>
+        <v>343.1678521899253</v>
       </c>
     </row>
     <row r="3">
@@ -22628,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>25.86237789960691</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22640,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.3592641379443</v>
+        <v>136.2420688160423</v>
       </c>
       <c r="H3" t="n">
-        <v>102.729632124056</v>
+        <v>101.5977720414757</v>
       </c>
       <c r="I3" t="n">
-        <v>65.63472101605001</v>
+        <v>61.59970664354542</v>
       </c>
       <c r="J3" t="n">
-        <v>33.84730027516773</v>
+        <v>22.7749124282733</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>84.56947841277972</v>
+        <v>77.29308816345807</v>
       </c>
       <c r="S3" t="n">
-        <v>86.1245543062208</v>
+        <v>151.2242511465658</v>
       </c>
       <c r="T3" t="n">
-        <v>103.5325490100188</v>
+        <v>195.7251189095246</v>
       </c>
       <c r="U3" t="n">
-        <v>133.2116793033683</v>
+        <v>225.8689183739243</v>
       </c>
       <c r="V3" t="n">
-        <v>140.1356378603231</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>122.3529197059849</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>58.92686411476865</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>58.83657468859553</v>
       </c>
     </row>
     <row r="4">
@@ -22719,49 +22719,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.1658146852775</v>
+        <v>167.0675620642408</v>
       </c>
       <c r="H4" t="n">
-        <v>154.8907084131551</v>
+        <v>154.0171532915746</v>
       </c>
       <c r="I4" t="n">
-        <v>130.6355227555885</v>
+        <v>127.6807984793224</v>
       </c>
       <c r="J4" t="n">
-        <v>68.65627904547948</v>
+        <v>61.70981873818779</v>
       </c>
       <c r="K4" t="n">
-        <v>33.14412614092828</v>
+        <v>21.72895798776025</v>
       </c>
       <c r="L4" t="n">
-        <v>12.20519387026839</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>9.577470677924651</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1.412844977410202</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>21.823262646183</v>
+        <v>7.935701265474336</v>
       </c>
       <c r="P4" t="n">
-        <v>37.92808757638606</v>
+        <v>26.04487966482523</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.40871249605685</v>
+        <v>74.18139529270546</v>
       </c>
       <c r="R4" t="n">
-        <v>140.1909870721275</v>
+        <v>114.3591328952961</v>
       </c>
       <c r="S4" t="n">
-        <v>209.6362282325312</v>
+        <v>207.923953009556</v>
       </c>
       <c r="T4" t="n">
-        <v>224.4198858246887</v>
+        <v>224.0000791711685</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2740203743174</v>
+        <v>286.2686611404426</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>283.9850106254478</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22795,19 +22795,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>370.130723442912</v>
       </c>
       <c r="G5" t="n">
-        <v>413.3887043444878</v>
+        <v>413.2441370602317</v>
       </c>
       <c r="H5" t="n">
-        <v>319.8727099068761</v>
+        <v>318.3921602069877</v>
       </c>
       <c r="I5" t="n">
-        <v>136.685125759028</v>
+        <v>131.1116955327425</v>
       </c>
       <c r="J5" t="n">
-        <v>18.59473170946464</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,25 +22828,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.61164031771682</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>95.3531516584621</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>53.29137858519758</v>
+        <v>162.1097117201341</v>
       </c>
       <c r="T5" t="n">
-        <v>102.6045092346994</v>
+        <v>214.0843260727917</v>
       </c>
       <c r="U5" t="n">
-        <v>139.0798701292611</v>
+        <v>104.3348437827354</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>180.9061373814261</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>202.3948476287042</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22868,7 +22868,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0.5989444759299545</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22877,16 +22877,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>71.30509722626716</v>
+        <v>136.2420688160423</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>101.5977720414757</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>61.59970664354542</v>
       </c>
       <c r="J6" t="n">
-        <v>30.08282103867671</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>77.29308816345808</v>
       </c>
       <c r="S6" t="n">
-        <v>40.54833922112496</v>
+        <v>44.65710011990448</v>
       </c>
       <c r="T6" t="n">
-        <v>196.0368949650912</v>
+        <v>195.7251189095246</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8740072105222</v>
+        <v>79.02279728521546</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22931,7 +22931,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>58.83657468859556</v>
       </c>
     </row>
     <row r="7">
@@ -22947,7 +22947,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>127.2014139654475</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -22956,49 +22956,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.1324099710516</v>
+        <v>167.0675620642408</v>
       </c>
       <c r="H7" t="n">
-        <v>154.5937101357652</v>
+        <v>154.0171532915746</v>
       </c>
       <c r="I7" t="n">
-        <v>129.630951895051</v>
+        <v>127.6807984793224</v>
       </c>
       <c r="J7" t="n">
-        <v>66.29456574971167</v>
+        <v>61.70981873818781</v>
       </c>
       <c r="K7" t="n">
-        <v>29.26310570632462</v>
+        <v>21.72895798776027</v>
       </c>
       <c r="L7" t="n">
-        <v>7.238823902544752</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7157523946084789</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>17.10165812996878</v>
+        <v>7.935701265474364</v>
       </c>
       <c r="P7" t="n">
-        <v>33.88793923037925</v>
+        <v>26.04487966482526</v>
       </c>
       <c r="Q7" t="n">
-        <v>79.61152319847201</v>
+        <v>74.18139529270549</v>
       </c>
       <c r="R7" t="n">
-        <v>138.6889896488451</v>
+        <v>135.7731919480611</v>
       </c>
       <c r="S7" t="n">
-        <v>209.0540751673406</v>
+        <v>207.923953009556</v>
       </c>
       <c r="T7" t="n">
-        <v>224.2771565911783</v>
+        <v>224.0000791711685</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2721982989959</v>
+        <v>286.2686611404426</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>238.0586849924383</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046876</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23032,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753915</v>
       </c>
       <c r="G8" t="n">
-        <v>413.2531730278943</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H8" t="n">
-        <v>264.6793024124626</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
-        <v>7.091680627731961</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,31 +23065,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.9757828529239987</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>162.3156188332455</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>214.1238810212347</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1816877488572</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>239.6614403107041</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>225.0559440074267</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897336</v>
       </c>
     </row>
     <row r="9">
@@ -23111,19 +23111,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.2469034849667</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>101.6444647650348</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J9" t="n">
-        <v>23.23168261818574</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S9" t="n">
-        <v>6.638896330325053</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>195.7446060180399</v>
+        <v>190.6854940419491</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8692364442482</v>
+        <v>38.33818124377098</v>
       </c>
       <c r="V9" t="n">
-        <v>88.12543047838298</v>
+        <v>45.27499998310532</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715752</v>
       </c>
       <c r="Y9" t="n">
-        <v>72.93708628736709</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.07161528826</v>
+        <v>114.7859889482798</v>
       </c>
       <c r="H10" t="n">
-        <v>154.0531901378539</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>127.8026899798254</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>42.40356304128953</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K10" t="n">
-        <v>22.19986892380261</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23217,25 +23217,25 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>8.508606056834793</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>26.53509868619516</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q10" t="n">
-        <v>74.52079753307214</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R10" t="n">
-        <v>135.9554396389582</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>207.9945896499623</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>224.0173974919776</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2688822253891</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>195.2082544971605</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>177.7473046046874</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>231.827238051572</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>225.5722460637379</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>228.8030079467913</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>125.4713171199747</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>213.4438810562068</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1692605650303</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>82.62682605986215</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23345,22 +23345,22 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>58.90455890409147</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>15.37922103265835</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>72.43289562846316</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>195.4095977920012</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8637684100909</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>64.16939599459948</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>17.77136924216742</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23427,22 +23427,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>114.7859889482795</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>153.4336708318196</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>125.7072197708667</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
-        <v>57.06999962825414</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>14.10430989402848</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,25 +23457,25 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>18.10760906709382</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>68.68604055159722</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>132.8223696106904</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
-        <v>206.7802557954962</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>223.7196734901001</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2650814934503</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>55.63165131926365</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>194.4047829059417</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>219.3504585753913</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.097833230058</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>151.7212889301275</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>77.08171901666373</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>213.4438810562068</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1692605650303</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23560,10 +23560,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>198.7123514897335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>162.4934997272912</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23588,16 +23588,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>58.90455890409147</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>15.37922103265835</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>72.43289562846316</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>195.4095977920012</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8637684100909</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23664,22 +23664,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>93.2051017684966</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>125.7072197708667</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
-        <v>57.06999962825414</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>14.10430989402848</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,28 +23694,28 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>18.10760906709382</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>68.68604055159722</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>132.8223696106904</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
-        <v>206.7802557954962</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>223.7196734901001</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>183.4423045235634</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23743,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>145.9927856228096</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>111.4435131414775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>64.81814676751887</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23946,19 +23946,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>204.7509947629275</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23974,22 +23974,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>117.3988779157982</v>
       </c>
       <c r="E20" t="n">
-        <v>296.7574771839101</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24034,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>56.99637738982341</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,13 +24183,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>72.76148449102794</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24214,13 +24214,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>11.38090318263278</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>195.1671555616918</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>90.93497457133149</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24420,10 +24420,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>34.47359541775907</v>
       </c>
     </row>
     <row r="26">
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24457,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>212.2797265909115</v>
       </c>
       <c r="H26" t="n">
-        <v>235.6797139074003</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>39.90830244884314</v>
+        <v>48.40916263079002</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24660,7 +24660,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24682,19 +24682,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>325.7750569628806</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>255.1805474109849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>107.7439527351648</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>219.6575593322651</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24903,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>345.5834682595404</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>250.3258605297767</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>39.59714231786506</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>204.7509947629275</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25165,10 +25165,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>107.9929497210592</v>
       </c>
       <c r="G35" t="n">
-        <v>181.1251564493155</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>58.65744065465078</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25365,7 +25365,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>147.4609218293966</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -25374,13 +25374,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>74.35676722131943</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>14.88500017520624</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>198.5902886500596</v>
       </c>
       <c r="W40" t="n">
-        <v>191.079628445936</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25639,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>212.7033040172687</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>97.9556892659979</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25836,13 +25836,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>117.8104659181693</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25851,10 +25851,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>135.3109948609974</v>
       </c>
     </row>
     <row r="44">
@@ -25879,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>37.81999791625537</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25927,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>187.569715395735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>39.59714231786452</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>55.2957277958994</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,13 +26076,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>362616.6230072703</v>
+        <v>409992.2446053787</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>379382.0342027749</v>
+        <v>409992.2446053787</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>408111.9599248167</v>
+        <v>441595.0580613401</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>441595.0580613401</v>
+        <v>871958.5900271864</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>441595.0580613402</v>
+        <v>871958.5900271862</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>871958.5900271864</v>
+        <v>871958.5900271861</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>871958.5900271864</v>
+        <v>871958.5900271861</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>871958.5900271862</v>
+        <v>871958.5900271864</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>871958.5900271861</v>
+        <v>871958.5900271864</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>871958.5900271861</v>
+        <v>871958.5900271862</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>871958.5900271862</v>
+        <v>871958.5900271864</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>871958.5900271862</v>
+        <v>871958.5900271864</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>871958.5900271861</v>
+        <v>871958.5900271866</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>116310.9922853508</v>
+        <v>131506.9463828573</v>
       </c>
       <c r="C2" t="n">
-        <v>121688.5770084371</v>
+        <v>131506.9463828573</v>
       </c>
       <c r="D2" t="n">
-        <v>130903.8362022996</v>
+        <v>141643.6978687317</v>
       </c>
       <c r="E2" t="n">
-        <v>141643.6978687317</v>
+        <v>279684.8307634372</v>
       </c>
       <c r="F2" t="n">
-        <v>141643.6978687317</v>
+        <v>279684.8307634371</v>
       </c>
       <c r="G2" t="n">
-        <v>279684.8307634369</v>
+        <v>279684.8307634371</v>
       </c>
       <c r="H2" t="n">
         <v>279684.830763437</v>
@@ -26337,7 +26337,7 @@
         <v>279684.830763437</v>
       </c>
       <c r="J2" t="n">
-        <v>279684.8307634371</v>
+        <v>279684.830763437</v>
       </c>
       <c r="K2" t="n">
         <v>279684.830763437</v>
@@ -26346,7 +26346,7 @@
         <v>279684.8307634371</v>
       </c>
       <c r="M2" t="n">
-        <v>279684.8307634371</v>
+        <v>279684.830763437</v>
       </c>
       <c r="N2" t="n">
         <v>279684.830763437</v>
@@ -26355,7 +26355,7 @@
         <v>279684.830763437</v>
       </c>
       <c r="P2" t="n">
-        <v>279684.830763437</v>
+        <v>279684.8307634371</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>471995.0992489056</v>
+        <v>542655.4349751307</v>
       </c>
       <c r="C3" t="n">
-        <v>23151.37050443033</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>38987.52889819871</v>
+        <v>43803.8038407444</v>
       </c>
       <c r="E3" t="n">
-        <v>43838.31016216676</v>
+        <v>627134.643633668</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>597335.6860090867</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>24245.22799179786</v>
+        <v>38421.40650613417</v>
       </c>
       <c r="K3" t="n">
-        <v>5005.218442393696</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>8241.274813353799</v>
+        <v>10295.60674904877</v>
       </c>
       <c r="M3" t="n">
-        <v>10678.49868114522</v>
+        <v>160456.4418678774</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>154949.3715668549</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.14558386063672</v>
+        <v>107.192147960263</v>
       </c>
       <c r="C4" t="n">
-        <v>81.37067654131212</v>
+        <v>107.1921479602629</v>
       </c>
       <c r="D4" t="n">
-        <v>105.5521581027501</v>
+        <v>137.800118072334</v>
       </c>
       <c r="E4" t="n">
-        <v>137.8001180723342</v>
+        <v>584.6469890061234</v>
       </c>
       <c r="F4" t="n">
-        <v>137.8001180723342</v>
+        <v>584.6469890061234</v>
       </c>
       <c r="G4" t="n">
         <v>584.6469890061231</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>49237.11966583622</v>
+        <v>53719.11977902091</v>
       </c>
       <c r="C5" t="n">
-        <v>50823.37311172271</v>
+        <v>53719.1197790209</v>
       </c>
       <c r="D5" t="n">
-        <v>53538.12534878444</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="E5" t="n">
-        <v>23358.20041161359</v>
+        <v>74306.34056139333</v>
       </c>
       <c r="F5" t="n">
-        <v>23358.20041161359</v>
+        <v>74306.34056139333</v>
       </c>
       <c r="G5" t="n">
         <v>74306.34056139328</v>
@@ -26490,10 +26490,10 @@
         <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
         <v>74306.34056139328</v>
@@ -26502,16 +26502,16 @@
         <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="N5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="O5" t="n">
+        <v>74306.34056139331</v>
+      </c>
+      <c r="P5" t="n">
         <v>74306.3405613933</v>
-      </c>
-      <c r="N5" t="n">
-        <v>74306.3405613933</v>
-      </c>
-      <c r="O5" t="n">
-        <v>74306.34056139328</v>
-      </c>
-      <c r="P5" t="n">
-        <v>74306.34056139328</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-404988.3722132517</v>
+        <v>-477765.1420374583</v>
       </c>
       <c r="C6" t="n">
-        <v>47632.46271574274</v>
+        <v>64890.29293767239</v>
       </c>
       <c r="D6" t="n">
-        <v>38272.62979721369</v>
+        <v>28522.23147926677</v>
       </c>
       <c r="E6" t="n">
-        <v>74309.38717687904</v>
+        <v>-426414.7957987999</v>
       </c>
       <c r="F6" t="n">
-        <v>118147.6973390458</v>
+        <v>200719.847834868</v>
       </c>
       <c r="G6" t="n">
-        <v>-392541.8427960492</v>
+        <v>200719.8478348684</v>
       </c>
       <c r="H6" t="n">
-        <v>204793.8432130375</v>
+        <v>200719.8478348679</v>
       </c>
       <c r="I6" t="n">
-        <v>204793.8432130376</v>
+        <v>200719.847834868</v>
       </c>
       <c r="J6" t="n">
-        <v>180548.6152212399</v>
+        <v>162298.4413287338</v>
       </c>
       <c r="K6" t="n">
-        <v>199788.6247706438</v>
+        <v>200719.8478348679</v>
       </c>
       <c r="L6" t="n">
-        <v>196552.5683996839</v>
+        <v>190424.2410858193</v>
       </c>
       <c r="M6" t="n">
-        <v>194115.3445318924</v>
+        <v>40263.40596699062</v>
       </c>
       <c r="N6" t="n">
-        <v>204793.8432130376</v>
+        <v>200719.8478348679</v>
       </c>
       <c r="O6" t="n">
-        <v>49844.47164618265</v>
+        <v>200719.847834868</v>
       </c>
       <c r="P6" t="n">
-        <v>204793.8432130376</v>
+        <v>200719.847834868</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>457.5913187641655</v>
+        <v>512.0768631572211</v>
       </c>
       <c r="C3" t="n">
-        <v>476.1157511985022</v>
+        <v>512.0768631572209</v>
       </c>
       <c r="D3" t="n">
-        <v>509.8291662011503</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="E3" t="n">
-        <v>548.4699409129048</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
-        <v>548.4699409129048</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26789,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92.6649492891022</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="C4" t="n">
-        <v>112.1126601249237</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="D4" t="n">
-        <v>144.6751566710423</v>
+        <v>187.52558716632</v>
       </c>
       <c r="E4" t="n">
-        <v>187.5255871663201</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
-        <v>187.5255871663201</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022925</v>
@@ -26822,16 +26822,16 @@
         <v>831.4014554022929</v>
       </c>
       <c r="M4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="N4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="O4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="P4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="O4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="P4" t="n">
-        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>457.5913187641655</v>
+        <v>512.0768631572211</v>
       </c>
       <c r="C3" t="n">
-        <v>18.52443243433669</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>33.71341500264811</v>
+        <v>36.39307775568363</v>
       </c>
       <c r="E3" t="n">
-        <v>38.64077471175449</v>
+        <v>541.306759680394</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>541.3067596803935</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92.6649492891022</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="C4" t="n">
-        <v>19.44771083582145</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>32.56249654611864</v>
+        <v>40.67946607761115</v>
       </c>
       <c r="E4" t="n">
-        <v>42.85043049527783</v>
+        <v>643.8758682359731</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>643.8758682359723</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,22 +27035,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>92.6649492891022</v>
+        <v>146.846121088709</v>
       </c>
       <c r="K4" t="n">
-        <v>19.44771083582145</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>32.56249654611898</v>
+        <v>40.67946607761149</v>
       </c>
       <c r="M4" t="n">
-        <v>42.85043049527783</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>643.875868235972</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>92.6649492891022</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="K4" t="n">
-        <v>19.44771083582145</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>32.56249654611864</v>
+        <v>40.67946607761115</v>
       </c>
       <c r="M4" t="n">
-        <v>42.85043049527783</v>
+        <v>643.8758682359731</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>643.8758682359723</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.839563090509207</v>
+        <v>2.0586004549034</v>
       </c>
       <c r="H2" t="n">
-        <v>18.83942550067742</v>
+        <v>21.08264190877945</v>
       </c>
       <c r="I2" t="n">
-        <v>70.91975604685626</v>
+        <v>79.3641940376634</v>
       </c>
       <c r="J2" t="n">
-        <v>156.1306178531059</v>
+        <v>174.7211403593576</v>
       </c>
       <c r="K2" t="n">
-        <v>233.9993234743607</v>
+        <v>261.8616976154185</v>
       </c>
       <c r="L2" t="n">
-        <v>290.2968524055319</v>
+        <v>324.8625912871685</v>
       </c>
       <c r="M2" t="n">
-        <v>323.011182516375</v>
+        <v>361.4722271270568</v>
       </c>
       <c r="N2" t="n">
-        <v>322.0780128856931</v>
+        <v>367.3212256695512</v>
       </c>
       <c r="O2" t="n">
-        <v>309.9456856660333</v>
+        <v>346.8510173961055</v>
       </c>
       <c r="P2" t="n">
-        <v>264.5314718690873</v>
+        <v>296.0293186656777</v>
       </c>
       <c r="Q2" t="n">
-        <v>198.6521186902262</v>
+        <v>222.3056898744497</v>
       </c>
       <c r="R2" t="n">
-        <v>115.5544549841991</v>
+        <v>129.3135608253258</v>
       </c>
       <c r="S2" t="n">
-        <v>41.91904392497859</v>
+        <v>46.91035786611127</v>
       </c>
       <c r="T2" t="n">
-        <v>8.052687428704056</v>
+        <v>9.011523491339636</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1471650472407365</v>
+        <v>0.1646880363922719</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9842530252663183</v>
+        <v>1.101448347168362</v>
       </c>
       <c r="H3" t="n">
-        <v>9.505812112440497</v>
+        <v>10.63767219502076</v>
       </c>
       <c r="I3" t="n">
-        <v>33.88765898395</v>
+        <v>37.92267335645458</v>
       </c>
       <c r="J3" t="n">
-        <v>92.99032639149897</v>
+        <v>104.0627142383934</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>177.8597534986737</v>
       </c>
       <c r="L3" t="n">
-        <v>213.7080965605662</v>
+        <v>239.1543878358324</v>
       </c>
       <c r="M3" t="n">
-        <v>195.6737869523496</v>
+        <v>279.0818904206855</v>
       </c>
       <c r="N3" t="n">
-        <v>224.0066613724355</v>
+        <v>238.7894450985627</v>
       </c>
       <c r="O3" t="n">
-        <v>234.1788327264121</v>
+        <v>262.0625810914129</v>
       </c>
       <c r="P3" t="n">
-        <v>187.9491588335306</v>
+        <v>210.3283251711235</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.6390352953988</v>
+        <v>140.5989153332808</v>
       </c>
       <c r="R3" t="n">
-        <v>61.11002555118424</v>
+        <v>68.38641580050589</v>
       </c>
       <c r="S3" t="n">
-        <v>18.28206825439849</v>
+        <v>20.45891995727198</v>
       </c>
       <c r="T3" t="n">
-        <v>3.967230395700641</v>
+        <v>4.439609785297038</v>
       </c>
       <c r="U3" t="n">
-        <v>0.06475348850436308</v>
+        <v>0.07246370705055018</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8251646731812819</v>
+        <v>0.9234172942179395</v>
       </c>
       <c r="H4" t="n">
-        <v>7.336464094284494</v>
+        <v>8.210019215864959</v>
       </c>
       <c r="I4" t="n">
-        <v>24.81495217166983</v>
+        <v>27.76967644793586</v>
       </c>
       <c r="J4" t="n">
-        <v>58.33914239391663</v>
+        <v>65.28560270120832</v>
       </c>
       <c r="K4" t="n">
-        <v>95.8691320296071</v>
+        <v>107.2843001827751</v>
       </c>
       <c r="L4" t="n">
-        <v>122.6794824109699</v>
+        <v>137.2869675421835</v>
       </c>
       <c r="M4" t="n">
-        <v>129.3483132696804</v>
+        <v>144.7498582199994</v>
       </c>
       <c r="N4" t="n">
-        <v>126.272699487823</v>
+        <v>141.308030123369</v>
       </c>
       <c r="O4" t="n">
-        <v>116.6332758056598</v>
+        <v>130.5208371863685</v>
       </c>
       <c r="P4" t="n">
-        <v>99.79991647276155</v>
+        <v>111.6831243843224</v>
       </c>
       <c r="Q4" t="n">
-        <v>69.09628913338899</v>
+        <v>77.32360633674038</v>
       </c>
       <c r="R4" t="n">
-        <v>37.102404305042</v>
+        <v>41.52019942910843</v>
       </c>
       <c r="S4" t="n">
-        <v>14.38036980444106</v>
+        <v>16.09264502741627</v>
       </c>
       <c r="T4" t="n">
-        <v>3.52570360359275</v>
+        <v>3.945510257113013</v>
       </c>
       <c r="U4" t="n">
-        <v>0.04500898217352452</v>
+        <v>0.05036821604825131</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.914033170647244</v>
+        <v>2.058600454903399</v>
       </c>
       <c r="H5" t="n">
-        <v>19.60209220889109</v>
+        <v>21.08264190877944</v>
       </c>
       <c r="I5" t="n">
-        <v>73.79076381137793</v>
+        <v>79.36419403766338</v>
       </c>
       <c r="J5" t="n">
-        <v>162.4511728172216</v>
+        <v>174.7211403593575</v>
       </c>
       <c r="K5" t="n">
-        <v>243.4721969307195</v>
+        <v>261.8616976154184</v>
       </c>
       <c r="L5" t="n">
-        <v>302.0487895769152</v>
+        <v>324.8625912871685</v>
       </c>
       <c r="M5" t="n">
-        <v>336.087476975413</v>
+        <v>361.4722271270568</v>
       </c>
       <c r="N5" t="n">
-        <v>341.5257237215146</v>
+        <v>367.3212256695511</v>
       </c>
       <c r="O5" t="n">
-        <v>322.493056380891</v>
+        <v>346.8510173961054</v>
       </c>
       <c r="P5" t="n">
-        <v>275.2403624805372</v>
+        <v>296.0293186656776</v>
       </c>
       <c r="Q5" t="n">
-        <v>206.6940495567327</v>
+        <v>222.3056898744496</v>
       </c>
       <c r="R5" t="n">
-        <v>120.23238615567</v>
+        <v>129.3135608253258</v>
       </c>
       <c r="S5" t="n">
-        <v>43.61603087612411</v>
+        <v>46.91035786611126</v>
       </c>
       <c r="T5" t="n">
-        <v>8.378680204508314</v>
+        <v>9.011523491339634</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1531226536517795</v>
+        <v>0.1646880363922719</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.024098030879797</v>
+        <v>1.101448347168362</v>
       </c>
       <c r="H6" t="n">
-        <v>9.890630982444359</v>
+        <v>10.63767219502076</v>
       </c>
       <c r="I6" t="n">
-        <v>35.25951553687022</v>
+        <v>37.92267335645457</v>
       </c>
       <c r="J6" t="n">
-        <v>96.75480562798998</v>
+        <v>104.0627142383934</v>
       </c>
       <c r="K6" t="n">
-        <v>165.3693736969364</v>
+        <v>177.8597534986736</v>
       </c>
       <c r="L6" t="n">
-        <v>222.3595307837911</v>
+        <v>239.1543878358323</v>
       </c>
       <c r="M6" t="n">
-        <v>254.246694046942</v>
+        <v>279.0818904206854</v>
       </c>
       <c r="N6" t="n">
-        <v>189.1706736602745</v>
+        <v>278.1878331720421</v>
       </c>
       <c r="O6" t="n">
-        <v>243.6589731628788</v>
+        <v>262.0625810914129</v>
       </c>
       <c r="P6" t="n">
-        <v>195.5578073177395</v>
+        <v>171.5470783449036</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.7252153102001</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
-        <v>63.58391107515094</v>
+        <v>68.38641580050587</v>
       </c>
       <c r="S6" t="n">
-        <v>19.0221717577892</v>
+        <v>20.45891995727197</v>
       </c>
       <c r="T6" t="n">
-        <v>4.127833729730409</v>
+        <v>4.439609785297036</v>
       </c>
       <c r="U6" t="n">
-        <v>0.06737487045261827</v>
+        <v>0.07246370705055016</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8585693874071351</v>
+        <v>0.9234172942179393</v>
       </c>
       <c r="H7" t="n">
-        <v>7.633462371674351</v>
+        <v>8.210019215864957</v>
       </c>
       <c r="I7" t="n">
-        <v>25.8195230322073</v>
+        <v>27.76967644793586</v>
       </c>
       <c r="J7" t="n">
-        <v>60.70085568968445</v>
+        <v>65.2856027012083</v>
       </c>
       <c r="K7" t="n">
-        <v>99.75015246421076</v>
+        <v>107.2843001827751</v>
       </c>
       <c r="L7" t="n">
-        <v>127.6458523786935</v>
+        <v>137.2869675421835</v>
       </c>
       <c r="M7" t="n">
-        <v>134.584654064193</v>
+        <v>144.7498582199993</v>
       </c>
       <c r="N7" t="n">
-        <v>131.3845318020392</v>
+        <v>141.3080301233689</v>
       </c>
       <c r="O7" t="n">
-        <v>121.354880321874</v>
+        <v>130.5208371863684</v>
       </c>
       <c r="P7" t="n">
-        <v>103.8400648187684</v>
+        <v>111.6831243843224</v>
       </c>
       <c r="Q7" t="n">
-        <v>71.89347843097383</v>
+        <v>77.32360633674035</v>
       </c>
       <c r="R7" t="n">
-        <v>38.60440172832445</v>
+        <v>41.52019942910842</v>
       </c>
       <c r="S7" t="n">
-        <v>14.96252286963161</v>
+        <v>16.09264502741626</v>
       </c>
       <c r="T7" t="n">
-        <v>3.668432837103212</v>
+        <v>3.945510257113012</v>
       </c>
       <c r="U7" t="n">
-        <v>0.04683105749493469</v>
+        <v>0.05036821604825129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.049564487240804</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>20.99010230495489</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I8" t="n">
-        <v>79.01583489435116</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J8" t="n">
-        <v>173.9542238989543</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K8" t="n">
-        <v>260.7122886438576</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L8" t="n">
-        <v>323.4366478202534</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M8" t="n">
-        <v>359.8855902702221</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N8" t="n">
-        <v>365.708915369595</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O8" t="n">
-        <v>345.3285584995942</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P8" t="n">
-        <v>294.7299352208368</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q8" t="n">
-        <v>221.3299070215255</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R8" t="n">
-        <v>128.7459552216403</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S8" t="n">
-        <v>46.70445075299986</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T8" t="n">
-        <v>8.971968542896622</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1639651589792643</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.096613678243984</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>10.59097947146163</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>37.75621655357576</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J9" t="n">
-        <v>103.6059440484809</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>177.0790604908279</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
-        <v>238.1046497432826</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M9" t="n">
-        <v>277.8568955796269</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N9" t="n">
-        <v>276.0168687543756</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O9" t="n">
-        <v>260.9122903671113</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P9" t="n">
-        <v>169.3276174917068</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>68.08624223342912</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S9" t="n">
-        <v>20.36911810247047</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T9" t="n">
-        <v>4.42012267678167</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07214563672657791</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9193640701987955</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H10" t="n">
-        <v>8.17398236958566</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I10" t="n">
-        <v>27.64778494743288</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J10" t="n">
-        <v>64.99903976305484</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K10" t="n">
-        <v>106.8133892467328</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L10" t="n">
-        <v>136.68436367301</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>144.114496931253</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N10" t="n">
-        <v>140.6877763059667</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>129.947932395008</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P10" t="n">
-        <v>111.1929053629525</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>76.9842040963737</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R10" t="n">
-        <v>41.33795173821129</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S10" t="n">
-        <v>16.02200838700991</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>3.928191936303944</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05014713110175254</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.204904285077002</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
-        <v>22.58097600954486</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>85.00457245043123</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>187.1384950655544</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>280.472093452864</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>347.9504329672894</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>387.1618995470275</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>393.4265838470026</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>371.5015668622681</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>317.0679923244296</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>238.1048576151093</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>138.5038187974684</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>50.24425639619225</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>9.651968507924584</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.179727797435305</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>11.39368688575676</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>40.61782109590852</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>111.4584056340083</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>190.5001680621737</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>256.1509851405033</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>298.9161177975331</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>306.8275379829655</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>280.6872536292674</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>225.2762668628873</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
-        <v>150.5912184936715</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>73.2466083355008</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>21.91292641288821</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>4.755130902820371</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9890441557445823</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>8.793501675620019</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>29.74325515639163</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
-        <v>69.92542181114197</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>114.9089482765069</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
-        <v>147.0438920276991</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>155.0371670682166</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>151.3507297604415</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>139.7968957592434</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>119.6203949820538</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.81896107784863</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>44.47102176647912</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>17.23634224147603</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>4.225915938181396</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.204904285077002</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
-        <v>22.58097600954486</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>85.00457245043123</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>187.1384950655544</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>280.472093452864</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>347.9504329672894</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>387.1618995470275</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>393.4265838470026</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>371.5015668622681</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>317.0679923244296</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>238.1048576151093</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>138.5038187974684</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>50.24425639619225</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>9.651968507924584</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.179727797435305</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>11.39368688575676</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>40.61782109590852</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>111.4584056340083</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>190.5001680621737</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>256.1509851405033</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>298.9161177975331</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>306.8275379829655</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>280.6872536292674</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>225.2762668628873</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
-        <v>150.5912184936715</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>73.2466083355008</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>21.91292641288821</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>4.755130902820371</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9890441557445823</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>8.793501675620019</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>29.74325515639163</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
-        <v>69.92542181114197</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>114.9089482765069</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
-        <v>147.0438920276991</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>155.0371670682166</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>151.3507297604415</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>139.7968957592434</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>119.6203949820538</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>82.81896107784863</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>44.47102176647912</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>17.23634224147603</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>4.225915938181396</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -34447,10 +34447,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>13.90947242938014</v>
+        <v>41.77184657043796</v>
       </c>
       <c r="L2" t="n">
-        <v>54.53043743554463</v>
+        <v>89.09617631718129</v>
       </c>
       <c r="M2" t="n">
-        <v>92.6649492891022</v>
+        <v>131.1259938997841</v>
       </c>
       <c r="N2" t="n">
-        <v>92.6649492891022</v>
+        <v>137.9081620729602</v>
       </c>
       <c r="O2" t="n">
-        <v>79.84747424434661</v>
+        <v>116.7528059744187</v>
       </c>
       <c r="P2" t="n">
-        <v>33.29847611381774</v>
+        <v>64.79632291040821</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>40.01831452431469</v>
       </c>
       <c r="L3" t="n">
-        <v>75.15371678069201</v>
+        <v>100.6000080559582</v>
       </c>
       <c r="M3" t="n">
-        <v>53.53975303033131</v>
+        <v>136.9478564986671</v>
       </c>
       <c r="N3" t="n">
-        <v>92.6649492891022</v>
+        <v>107.4477330152294</v>
       </c>
       <c r="O3" t="n">
-        <v>91.5825882819677</v>
+        <v>119.4663366469685</v>
       </c>
       <c r="P3" t="n">
-        <v>53.97475141920032</v>
+        <v>76.35391775679327</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>0.6171412472592692</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,13 +34862,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>2.402291260945219</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>5.824074272394313</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>13.62248565813579</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>23.38234588573897</v>
+        <v>41.7718465704379</v>
       </c>
       <c r="L5" t="n">
-        <v>66.28237460692793</v>
+        <v>89.09617631718123</v>
       </c>
       <c r="M5" t="n">
-        <v>105.7412437481403</v>
+        <v>131.125993899784</v>
       </c>
       <c r="N5" t="n">
-        <v>112.1126601249237</v>
+        <v>137.9081620729602</v>
       </c>
       <c r="O5" t="n">
-        <v>92.39484495920428</v>
+        <v>116.7528059744186</v>
       </c>
       <c r="P5" t="n">
-        <v>44.00736672526762</v>
+        <v>64.79632291040809</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>27.52793472257738</v>
+        <v>40.01831452431463</v>
       </c>
       <c r="L6" t="n">
-        <v>83.8051510039169</v>
+        <v>100.6000080559581</v>
       </c>
       <c r="M6" t="n">
-        <v>112.1126601249237</v>
+        <v>136.9478564986671</v>
       </c>
       <c r="N6" t="n">
-        <v>57.82896157694119</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="O6" t="n">
-        <v>101.0627287184343</v>
+        <v>119.4663366469684</v>
       </c>
       <c r="P6" t="n">
-        <v>61.58339990340929</v>
+        <v>37.57267093057332</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35099,13 +35099,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>2.402291260945191</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>5.824074272394256</v>
       </c>
       <c r="N7" t="n">
-        <v>3.698987336806027</v>
+        <v>13.62248565813573</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K8" t="n">
-        <v>40.62243759887707</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L8" t="n">
-        <v>87.67023285026619</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M8" t="n">
-        <v>129.5393570429493</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N8" t="n">
-        <v>136.2958517730041</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O8" t="n">
-        <v>115.2303470779075</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P8" t="n">
-        <v>63.49693946556727</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>39.23762151646886</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L9" t="n">
-        <v>99.55026996340837</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M9" t="n">
-        <v>135.7228616576086</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N9" t="n">
-        <v>144.6751566710423</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O9" t="n">
-        <v>118.3160459226669</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P9" t="n">
-        <v>35.35321007737658</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,16 +35336,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1.799687391771755</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M10" t="n">
-        <v>5.188712983647946</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N10" t="n">
-        <v>13.00223184073349</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>6.092590538868137</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>60.38224240788344</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>112.1840179973021</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>156.8156663197548</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
-        <v>164.0135202504117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>141.4033554405814</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>85.83499656916001</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>15.79916774065984</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>52.65872908781475</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>117.5966053606292</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>156.7820838755148</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>175.4858258996322</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>138.091009184823</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>91.30185944855702</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
-        <v>10.60944440765002</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L13" t="n">
-        <v>12.15921574646083</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M13" t="n">
-        <v>16.11138312061158</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N13" t="n">
-        <v>23.66518529520832</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O13" t="n">
-        <v>1.340357307400581</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>6.092590538868137</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>60.38224240788344</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>112.1840179973021</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>156.8156663197548</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
-        <v>164.0135202504117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>141.4033554405814</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>85.83499656916001</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>15.79916774065984</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>52.65872908781475</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>117.5966053606292</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>156.7820838755148</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>175.4858258996322</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>138.091009184823</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>91.30185944855702</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
-        <v>10.60944440765002</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L16" t="n">
-        <v>12.15921574646083</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M16" t="n">
-        <v>16.11138312061158</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N16" t="n">
-        <v>23.66518529520832</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O16" t="n">
-        <v>1.340357307400581</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554005</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
